--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-emed-AdministrableProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-emed-AdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T07:48:00+00:00</t>
+    <t>2024-05-21T11:15:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,7 +471,7 @@
     <t>AdministrableProductDefinition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/Identifier-eMed}
+    <t xml:space="preserve">Identifier {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-identifier}
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>AdministrableProductDefinition.routeOfAdministration.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/RefTermCodeableConcept}
+    <t xml:space="preserve">CodeableConcept {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-codeableconcept}
 </t>
   </si>
   <si>
@@ -1421,7 +1421,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.62109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.6875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
